--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2377943.328528571</v>
+        <v>-2380557.607145023</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>116.7928553626709</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>35.36864892362923</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.2146126744141</v>
       </c>
       <c r="H2" t="n">
         <v>297.6072935907341</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>52.86845664851262</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>115.8619247783174</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>205.2000830738755</v>
       </c>
       <c r="U2" t="n">
         <v>251.0186029205788</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>22.02082917657242</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>53.02159927470709</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>145.9230939674644</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>100.3033462869334</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>94.83943180792919</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>192.0586035981866</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.1102960603998</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>315.9968882787543</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>151.2796191729007</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247811</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1054,22 +1054,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>34.49601539791197</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>57.6875023808085</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,7 +1108,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>329.840671389584</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>146.5990350281153</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>130.3863236130828</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>82.39501537729572</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>36.21070476472229</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>80.33989744908912</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797021</v>
       </c>
       <c r="T16" t="n">
-        <v>65.06198119184029</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>108.2950343703268</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>253.0553988782216</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>23.1099832571713</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462238</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856549</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>178.2798710842947</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>33.82351723687823</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462238</v>
+        <v>83.06560892428134</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272882</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2719,7 +2719,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352496</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
@@ -2773,7 +2773,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
         <v>201.4250078969974</v>
@@ -2953,10 +2953,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261717</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3010,7 +3010,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
@@ -3041,10 +3041,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3898,7 +3898,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
         <v>124.3308255261727</v>
@@ -3907,16 +3907,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652587</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808202</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4192,16 +4192,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1150.459761123533</v>
+        <v>946.7264418494919</v>
       </c>
       <c r="C2" t="n">
-        <v>781.4972441831217</v>
+        <v>828.7538606750769</v>
       </c>
       <c r="D2" t="n">
-        <v>781.4972441831217</v>
+        <v>828.7538606750769</v>
       </c>
       <c r="E2" t="n">
-        <v>395.7089915848774</v>
+        <v>828.7538606750769</v>
       </c>
       <c r="F2" t="n">
-        <v>359.9830835812115</v>
+        <v>828.7538606750769</v>
       </c>
       <c r="G2" t="n">
-        <v>359.9830835812115</v>
+        <v>413.3855650443555</v>
       </c>
       <c r="H2" t="n">
-        <v>59.36965571178314</v>
+        <v>112.7721371749272</v>
       </c>
       <c r="I2" t="n">
-        <v>59.36965571178314</v>
+        <v>59.36965571178316</v>
       </c>
       <c r="J2" t="n">
-        <v>223.6389510734995</v>
+        <v>223.6389510734998</v>
       </c>
       <c r="K2" t="n">
-        <v>520.5745606447439</v>
+        <v>520.5745606447449</v>
       </c>
       <c r="L2" t="n">
-        <v>925.8512030185016</v>
+        <v>925.8512030185025</v>
       </c>
       <c r="M2" t="n">
-        <v>1408.468993552356</v>
+        <v>1408.468993552357</v>
       </c>
       <c r="N2" t="n">
-        <v>1903.509852877247</v>
+        <v>1903.509852877248</v>
       </c>
       <c r="O2" t="n">
-        <v>2357.627637384224</v>
+        <v>2357.627637384225</v>
       </c>
       <c r="P2" t="n">
-        <v>2710.705659215709</v>
+        <v>2710.70565921571</v>
       </c>
       <c r="Q2" t="n">
-        <v>2927.679802719471</v>
+        <v>2927.679802719473</v>
       </c>
       <c r="R2" t="n">
-        <v>2968.482785589157</v>
+        <v>2968.482785589158</v>
       </c>
       <c r="S2" t="n">
-        <v>2851.450538338331</v>
+        <v>2851.450538338333</v>
       </c>
       <c r="T2" t="n">
-        <v>2851.450538338331</v>
+        <v>2644.1777271526</v>
       </c>
       <c r="U2" t="n">
-        <v>2597.89639397411</v>
+        <v>2390.623582788378</v>
       </c>
       <c r="V2" t="n">
-        <v>2266.833506630539</v>
+        <v>2059.560695444808</v>
       </c>
       <c r="W2" t="n">
-        <v>1914.064851360425</v>
+        <v>1706.792040174694</v>
       </c>
       <c r="X2" t="n">
-        <v>1540.599093099345</v>
+        <v>1333.326281913614</v>
       </c>
       <c r="Y2" t="n">
-        <v>1150.459761123533</v>
+        <v>1333.326281913614</v>
       </c>
     </row>
     <row r="3">
@@ -4401,16 +4401,16 @@
         <v>165.6295159672683</v>
       </c>
       <c r="H3" t="n">
-        <v>73.59886104182665</v>
+        <v>73.59886104182667</v>
       </c>
       <c r="I3" t="n">
-        <v>59.36965571178314</v>
+        <v>59.36965571178316</v>
       </c>
       <c r="J3" t="n">
-        <v>138.3894757148951</v>
+        <v>138.3894757148952</v>
       </c>
       <c r="K3" t="n">
-        <v>351.6017589168901</v>
+        <v>591.3495759479379</v>
       </c>
       <c r="L3" t="n">
         <v>924.3623438981804</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>508.5303502087895</v>
+        <v>1951.814682269533</v>
       </c>
       <c r="C4" t="n">
-        <v>508.5303502087895</v>
+        <v>1782.878499341627</v>
       </c>
       <c r="D4" t="n">
-        <v>508.5303502087895</v>
+        <v>1632.761859929291</v>
       </c>
       <c r="E4" t="n">
-        <v>454.9731792242368</v>
+        <v>1484.848766346898</v>
       </c>
       <c r="F4" t="n">
-        <v>308.0832317263264</v>
+        <v>1337.958818848987</v>
       </c>
       <c r="G4" t="n">
-        <v>308.0832317263264</v>
+        <v>1337.958818848987</v>
       </c>
       <c r="H4" t="n">
-        <v>160.6861671127259</v>
+        <v>1337.958818848987</v>
       </c>
       <c r="I4" t="n">
-        <v>59.36965571178314</v>
+        <v>1236.642307448044</v>
       </c>
       <c r="J4" t="n">
-        <v>95.29667538945986</v>
+        <v>1272.569327125721</v>
       </c>
       <c r="K4" t="n">
-        <v>284.1726417778209</v>
+        <v>1461.445293514082</v>
       </c>
       <c r="L4" t="n">
-        <v>581.3952856386278</v>
+        <v>1758.667937374889</v>
       </c>
       <c r="M4" t="n">
-        <v>905.1640129945956</v>
+        <v>2082.436664730857</v>
       </c>
       <c r="N4" t="n">
-        <v>1226.668860094579</v>
+        <v>2403.941511830841</v>
       </c>
       <c r="O4" t="n">
-        <v>1507.614327944344</v>
+        <v>2684.886979680606</v>
       </c>
       <c r="P4" t="n">
-        <v>1724.491028290281</v>
+        <v>2901.763680026542</v>
       </c>
       <c r="Q4" t="n">
-        <v>1791.210133852896</v>
+        <v>2968.482785589158</v>
       </c>
       <c r="R4" t="n">
-        <v>1695.412727986301</v>
+        <v>2968.482785589158</v>
       </c>
       <c r="S4" t="n">
-        <v>1501.414138493185</v>
+        <v>2968.482785589158</v>
       </c>
       <c r="T4" t="n">
-        <v>1501.414138493185</v>
+        <v>2746.149153204916</v>
       </c>
       <c r="U4" t="n">
-        <v>1501.414138493185</v>
+        <v>2746.149153204916</v>
       </c>
       <c r="V4" t="n">
-        <v>1246.729650287298</v>
+        <v>2491.464664999029</v>
       </c>
       <c r="W4" t="n">
-        <v>957.312480250337</v>
+        <v>2202.047494962068</v>
       </c>
       <c r="X4" t="n">
-        <v>729.3229293523196</v>
+        <v>1974.057944064051</v>
       </c>
       <c r="Y4" t="n">
-        <v>508.5303502087895</v>
+        <v>1974.057944064051</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1381.278680221568</v>
+        <v>1891.353293732295</v>
       </c>
       <c r="C5" t="n">
-        <v>1012.316163281156</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>654.0504646744055</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>268.2622120761612</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>261.3167113269578</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,10 +4565,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,7 +4577,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4598,19 +4598,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522581</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261501</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.878520285689</v>
+        <v>2277.953133796417</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601605</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4665,7 +4665,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125857</v>
@@ -4674,16 +4674,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>212.7293032143256</v>
+        <v>567.2993462682273</v>
       </c>
       <c r="C7" t="n">
-        <v>212.7293032143256</v>
+        <v>398.3631633403204</v>
       </c>
       <c r="D7" t="n">
-        <v>212.7293032143256</v>
+        <v>248.2465239279847</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4723,19 +4723,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1869.024343663434</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1677.33845949026</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1455.571844059787</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1166.46897718543</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V7" t="n">
-        <v>911.7844889795433</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W7" t="n">
-        <v>622.3673189425826</v>
+        <v>969.7403902419971</v>
       </c>
       <c r="X7" t="n">
-        <v>394.3777680445653</v>
+        <v>969.7403902419971</v>
       </c>
       <c r="Y7" t="n">
-        <v>394.3777680445653</v>
+        <v>748.947811098467</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1619.798686923957</v>
+        <v>1611.504630229388</v>
       </c>
       <c r="C8" t="n">
-        <v>1250.836169983545</v>
+        <v>1242.542113288977</v>
       </c>
       <c r="D8" t="n">
-        <v>892.5704713767946</v>
+        <v>1242.542113288977</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>856.7538606907324</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3067.235319774533</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3067.235319774533</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V8" t="n">
-        <v>2736.172432430963</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W8" t="n">
-        <v>2383.403777160848</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X8" t="n">
-        <v>2009.938018899768</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="Y8" t="n">
-        <v>1619.798686923957</v>
+        <v>1998.10447029351</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,49 +4884,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>810.3754302374108</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C10" t="n">
-        <v>641.4392473095039</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="D10" t="n">
-        <v>491.3226078971682</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="E10" t="n">
-        <v>491.3226078971682</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="F10" t="n">
-        <v>344.4326603992578</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>295.9565914742203</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>149.7394046920781</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1513.842048484845</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1259.157560278958</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1259.157560278958</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>1031.168009380941</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>810.3754302374108</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="11">
@@ -5030,10 +5030,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5042,16 +5042,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,7 +5060,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5115,22 +5115,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>658.9255961109956</v>
+        <v>802.928827395873</v>
       </c>
       <c r="C13" t="n">
-        <v>489.9894131830887</v>
+        <v>633.9926444679661</v>
       </c>
       <c r="D13" t="n">
-        <v>489.9894131830887</v>
+        <v>483.8760050556303</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>483.8760050556303</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851784</v>
+        <v>483.8760050556303</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>316.6799057705102</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>174.9680746127084</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5215,13 +5215,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487567</v>
@@ -5230,19 +5230,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.35942226766</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>984.5772922261127</v>
       </c>
     </row>
     <row r="14">
@@ -5261,37 +5261,37 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>849.3843576263199</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>680.448174698413</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036841</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
@@ -5440,7 +5440,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5449,37 +5449,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>2131.343372566517</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1842.268145910715</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V16" t="n">
-        <v>1587.583657704828</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1298.166487667867</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1070.17693676985</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y16" t="n">
-        <v>849.3843576263199</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5534,31 +5534,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,10 +5586,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5598,19 +5598,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961525</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N18" t="n">
-        <v>1965.532750177311</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400713</v>
+        <v>956.9553291057246</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121644</v>
+        <v>788.0191461778177</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121644</v>
+        <v>637.9025067654819</v>
       </c>
       <c r="E19" t="n">
-        <v>235.5284942057738</v>
+        <v>489.9894131830888</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851785</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,7 +5695,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487567</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1721.849566492102</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1467.165078286215</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1177.747908249255</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1177.747908249255</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703111</v>
+        <v>956.9553291057246</v>
       </c>
     </row>
     <row r="20">
@@ -5732,22 +5732,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
@@ -5759,40 +5759,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>139.234765840794</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>139.234765840794</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876684</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356193</v>
+        <v>411.9631215597615</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232835</v>
+        <v>411.9631215597615</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>264.0500279773684</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429801</v>
+        <v>117.160080479458</v>
       </c>
       <c r="G22" t="n">
-        <v>317.61519755786</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854707</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W22" t="n">
-        <v>1508.305175991783</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1280.315625093766</v>
+        <v>983.3403484614382</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179081</v>
       </c>
     </row>
     <row r="23">
@@ -5978,16 +5978,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6002,34 +6002,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>984.9192356072725</v>
+        <v>513.8536007400705</v>
       </c>
       <c r="C25" t="n">
-        <v>815.9830526793656</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D25" t="n">
-        <v>665.8664132670299</v>
+        <v>344.917417812164</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408903</v>
+        <v>344.917417812164</v>
       </c>
       <c r="F25" t="n">
-        <v>484.81129684298</v>
+        <v>344.917417812164</v>
       </c>
       <c r="G25" t="n">
-        <v>317.61519755786</v>
+        <v>177.7213185270439</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.711814750803</v>
+        <v>916.2946447138404</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.9192356072725</v>
+        <v>695.5020655703103</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2978.49319221331</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C28" t="n">
-        <v>2834.086956247059</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D28" t="n">
-        <v>2708.500263796379</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E28" t="n">
-        <v>2585.117117175643</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>2462.757116639389</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G28" t="n">
-        <v>2320.090964315925</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
-        <v>2202.909080119779</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I28" t="n">
-        <v>2145.352323729349</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>2249.630143176792</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K28" t="n">
-        <v>2535.36120671945</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>2949.80160191251</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
-        <v>3395.853105660664</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N28" t="n">
-        <v>3837.304778337792</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O28" t="n">
-        <v>4230.875860063896</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P28" t="n">
-        <v>4547.593116654573</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>4648.317395612651</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S28" t="n">
-        <v>4489.992508229212</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T28" t="n">
-        <v>4294.920990213808</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>4030.375710519663</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>3800.221169275432</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
-        <v>3535.333946200128</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>3331.874342263767</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y28" t="n">
-        <v>3135.611710081893</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="29">
@@ -6540,28 +6540,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>172.349019141113</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2737913123336</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319315</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656809</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6619,13 +6619,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6649,13 +6649,13 @@
         <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W31" t="n">
         <v>1483.79828551875</v>
@@ -6664,7 +6664,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>139.234765840794</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>139.234765840794</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6838,31 +6838,31 @@
         <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,7 +6880,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547834</v>
@@ -6889,13 +6889,13 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
         <v>1280.338681582389</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7017,25 +7017,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1965.532750177311</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2389.155899672379</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384017</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7163,28 +7163,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319327</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311323</v>
@@ -7354,28 +7354,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>3212.252935505192</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>3809.631423131744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>3869.022106831312</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954154</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380733</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,28 +7588,28 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1550.665004989558</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -8058,10 +8058,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>242.1695121525734</v>
       </c>
       <c r="L3" t="n">
-        <v>242.1695121525735</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>248.4800364083366</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>371.5073968180822</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.2146126744141</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52.86845664851262</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>205.2000830738755</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,16 +22702,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>157.8111510053649</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>93.41236337186209</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,7 +22720,7 @@
         <v>166.1571872936354</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>145.9230939674644</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22750,13 +22750,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>94.83943180792919</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>192.0586035981866</v>
       </c>
       <c r="T4" t="n">
-        <v>220.1102960603998</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2190043347733</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>143.621275417215</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.9259388694764118</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>57.22910392194245</v>
       </c>
       <c r="T16" t="n">
-        <v>152.343469135448</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>38.13892827624241</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>33.12907551102259</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>142.4141550350975</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,16 +24184,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>108.2431272522963</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>112.6104454096909</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194255</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -26314,28 +26314,28 @@
         <v>32460.91116143662</v>
       </c>
       <c r="C2" t="n">
-        <v>41052.08849321417</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="D2" t="n">
         <v>41052.08849321416</v>
       </c>
       <c r="E2" t="n">
-        <v>40357.32998450031</v>
+        <v>40357.32998450027</v>
       </c>
       <c r="F2" t="n">
-        <v>40357.32998450031</v>
+        <v>40357.3299845003</v>
       </c>
       <c r="G2" t="n">
         <v>40357.32998450029</v>
       </c>
       <c r="H2" t="n">
-        <v>40357.32998450028</v>
+        <v>40357.3299845003</v>
       </c>
       <c r="I2" t="n">
-        <v>40357.32998450029</v>
+        <v>40357.32998450031</v>
       </c>
       <c r="J2" t="n">
-        <v>41052.08849321419</v>
+        <v>41052.0884932142</v>
       </c>
       <c r="K2" t="n">
         <v>41052.08849321418</v>
@@ -26344,13 +26344,13 @@
         <v>41052.08849321419</v>
       </c>
       <c r="M2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="N2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="O2" t="n">
-        <v>41052.0884932142</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="P2" t="n">
         <v>41052.08849321419</v>
@@ -26366,7 +26366,7 @@
         <v>1228620.061871474</v>
       </c>
       <c r="C3" t="n">
-        <v>95186.49343973104</v>
+        <v>95186.49343973048</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26381,31 +26381,31 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>213599.145481804</v>
+        <v>213599.1454818042</v>
       </c>
       <c r="K3" t="n">
-        <v>22978.01038359982</v>
+        <v>22978.01038359964</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363173</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="P3" t="n">
-        <v>5.115907697472721e-11</v>
+        <v>4.263256414560601e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15667.67952732126</v>
+        <v>15667.67952732125</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="D4" t="n">
         <v>90354.06702314482</v>
@@ -26430,31 +26430,31 @@
         <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179358</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179354</v>
+        <v>11167.03225179357</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179356</v>
       </c>
       <c r="J4" t="n">
-        <v>19157.89151488699</v>
+        <v>19157.89151488698</v>
       </c>
       <c r="K4" t="n">
-        <v>19157.89151488699</v>
+        <v>19157.89151488698</v>
       </c>
       <c r="L4" t="n">
-        <v>19157.89151488705</v>
+        <v>19157.891514887</v>
       </c>
       <c r="M4" t="n">
-        <v>19157.891514887</v>
+        <v>19157.89151488697</v>
       </c>
       <c r="N4" t="n">
         <v>19157.89151488698</v>
       </c>
       <c r="O4" t="n">
-        <v>19157.89151488697</v>
+        <v>19157.89151488698</v>
       </c>
       <c r="P4" t="n">
         <v>19157.89151488699</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100917.4173209745</v>
+        <v>100917.4173209746</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1312744.247558333</v>
+        <v>-1313173.806424922</v>
       </c>
       <c r="C6" t="n">
-        <v>-252422.412531055</v>
+        <v>-252422.4125310545</v>
       </c>
       <c r="D6" t="n">
-        <v>-157235.919091324</v>
+        <v>-157235.9190913239</v>
       </c>
       <c r="E6" t="n">
-        <v>-397344.6938985555</v>
+        <v>-397379.4318239913</v>
       </c>
       <c r="F6" t="n">
-        <v>-71932.23209120032</v>
+        <v>-71966.97001663603</v>
       </c>
       <c r="G6" t="n">
-        <v>-71932.23209120033</v>
+        <v>-71966.97001663609</v>
       </c>
       <c r="H6" t="n">
-        <v>-71932.23209120041</v>
+        <v>-71966.97001663606</v>
       </c>
       <c r="I6" t="n">
-        <v>-71932.23209120033</v>
+        <v>-71966.97001663604</v>
       </c>
       <c r="J6" t="n">
-        <v>-294869.0643573922</v>
+        <v>-294869.0643573924</v>
       </c>
       <c r="K6" t="n">
-        <v>-104247.929259188</v>
+        <v>-104247.9292591878</v>
       </c>
       <c r="L6" t="n">
-        <v>-81269.91887558825</v>
+        <v>-81269.91887558822</v>
       </c>
       <c r="M6" t="n">
-        <v>-166324.9468111001</v>
+        <v>-166324.9468111</v>
       </c>
       <c r="N6" t="n">
         <v>-81269.91887558819</v>
@@ -26701,31 +26701,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>1016.921054129329</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.1206963972892</v>
+        <v>742.1206963972895</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26923,31 +26923,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.2846474920397</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203966</v>
-      </c>
       <c r="P2" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>5.329070518200751e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26960,7 +26960,7 @@
         <v>1016.921054129329</v>
       </c>
       <c r="C3" t="n">
-        <v>72.85564646396983</v>
+        <v>72.85564646396938</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.1206963972892</v>
+        <v>742.1206963972895</v>
       </c>
       <c r="C4" t="n">
-        <v>89.28075900500357</v>
+        <v>89.28075900500312</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.1206963972888</v>
+        <v>742.1206963972897</v>
       </c>
       <c r="K4" t="n">
-        <v>89.2807590050038</v>
+        <v>89.28075900500312</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.1206963972892</v>
+        <v>742.1206963972895</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500357</v>
+        <v>89.28075900500312</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>49.27600349225327</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>259.6421064805528</v>
-      </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>111.9379472486572</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>31.24465028923882</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,7 +27828,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>77.03537435212746</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>57.31893511150483</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>35.6394846459454</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>13.95740503254237</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,19 +28059,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29101,7 +29101,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="32">
@@ -29761,10 +29761,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31835,10 +31835,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31853,7 +31853,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>639.47033547631</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32318,22 +32318,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>271.1474903386692</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32549,10 +32549,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>170.9292585737929</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,7 +32789,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>699.0496615458086</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32810,7 +32810,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32947,7 +32947,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
         <v>867.846407116256</v>
@@ -32956,7 +32956,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
         <v>926.5868626460027</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>461.1007071927452</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33260,13 +33260,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>204.3779992811859</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>172.7144981745678</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33737,7 +33737,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>268.5330199802463</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34387,7 +34387,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>172.8142548092792</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34778,10 +34778,10 @@
         <v>79.81800000314342</v>
       </c>
       <c r="K3" t="n">
-        <v>215.3659426282778</v>
+        <v>457.5354547808512</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5460454356468</v>
+        <v>336.3765332830732</v>
       </c>
       <c r="M3" t="n">
         <v>412.0879405784657</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35483,10 +35483,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35501,7 +35501,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>508.1286233929767</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35966,22 +35966,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>128.5512458942248</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36197,10 +36197,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>44.09163190712619</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.0464832629534</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36373,7 +36373,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683806</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36437,7 +36437,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>556.4534171013642</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36458,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295343</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36595,7 +36595,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36604,7 +36604,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>318.5044627483008</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36753,25 +36753,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>77.54037261451921</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,25 +36990,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>45.87687150790111</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37385,7 +37385,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.5512458942248</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016746</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37953,7 +37953,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
         <v>144.686904791938</v>
@@ -38035,7 +38035,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>27.13475084531527</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
